--- a/Healthcare/TMDX.xlsx
+++ b/Healthcare/TMDX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D406BE-51A7-044C-824A-8066E4D238D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC086A7-BE1F-AA4D-AD20-A2CCEAFDFABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1936,9 +1936,11 @@
     <v>Powered by Refinitiv</v>
     <v>177.37</v>
     <v>55.29</v>
-    <v>2.0775999999999999</v>
-    <v>3.35</v>
-    <v>4.0361000000000001E-2</v>
+    <v>2.0680999999999998</v>
+    <v>-0.85</v>
+    <v>-9.8440000000000003E-3</v>
+    <v>0.34989999999999999</v>
+    <v>4.0920000000000002E-3</v>
     <v>USD</v>
     <v>TransMedics Group, Inc. is a medical technology company that is transforming organ transplant therapy for patients with end-stage lung, heart and liver failure. The Company specializes in portable extracorporeal warm perfusion and assessment of donor organs for transplantation. Its Organ Care System (OCS) is a portable organ perfusion, optimization and monitoring system that utilizes its customized technology to replicate near-physiologic conditions for donor organs outside of the human body. It also developed its National OCS Program (NOP), which is a turnkey solution to provide outsourced organ retrieval, OCS organ management and logistics services, to provide transplant programs in the United States. Its logistics services include aviation transportation, ground transportation and other coordination activity. Its NOP provides trained organ procurement surgeons, clinical specialists and transplant coordinators that provide an end-to-end clinical solution using its OCS technology.</v>
     <v>584</v>
@@ -1946,24 +1948,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>200 Minuteman Road, ANDOVER, MA, 01810 US</v>
-    <v>87.2</v>
+    <v>88.843900000000005</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45602.914617476563</v>
+    <v>45604.041543332809</v>
     <v>0</v>
-    <v>83.13</v>
-    <v>2898037252</v>
+    <v>84.63</v>
+    <v>2869509960</v>
     <v>TransMedics Group, Inc.</v>
     <v>TransMedics Group, Inc.</v>
-    <v>84.62</v>
-    <v>91.970299999999995</v>
-    <v>83</v>
+    <v>86.55</v>
+    <v>91.063999999999993</v>
     <v>86.35</v>
+    <v>85.5</v>
+    <v>85.849900000000005</v>
     <v>33561520</v>
     <v>TMDX</v>
     <v>TransMedics Group, Inc. (XNAS:TMDX)</v>
-    <v>706</v>
-    <v>1803663</v>
+    <v>1143670</v>
+    <v>1839028</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -1995,6 +1998,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2015,6 +2020,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2031,7 +2037,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2042,13 +2048,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2114,13 +2123,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2165,6 +2180,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2172,6 +2190,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2839,7 +2860,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2872,14 +2893,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>86.35</v>
+        <v>85.5</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="42">
         <f ca="1">A5/F10</f>
-        <v>6.6014515990888381</v>
+        <v>6.5364691571753983</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2917,14 +2938,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>4.0361000000000001E-2</v>
+        <v>-9.8440000000000003E-3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="42">
         <f ca="1">A5/F15</f>
-        <v>82.801064342857146</v>
+        <v>81.98599885714286</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2965,14 +2986,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>2898037252</v>
+        <v>2869509960</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="43">
         <f ca="1">F18/A5</f>
-        <v>-1.6217872964733027E-2</v>
+        <v>-1.6379103280756691E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3014,7 +3035,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>2.0775999999999999</v>
+        <v>2.0680999999999998</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
@@ -3046,7 +3067,7 @@
       </c>
       <c r="K6" s="49">
         <f ca="1">K5/A3-1</f>
-        <v>-0.42783031698319507</v>
+        <v>-0.42214208036840806</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>13</v>

--- a/Healthcare/TMDX.xlsx
+++ b/Healthcare/TMDX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Desktop/stocks/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC086A7-BE1F-AA4D-AD20-A2CCEAFDFABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B7CAD6-46A3-7F45-961E-F99F6C2BF54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E608DFD5-05DA-0349-8261-C0D7D558308B}"/>
   </bookViews>
@@ -1935,12 +1935,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>177.37</v>
-    <v>55.29</v>
-    <v>2.0680999999999998</v>
-    <v>-0.85</v>
-    <v>-9.8440000000000003E-3</v>
-    <v>0.34989999999999999</v>
-    <v>4.0920000000000002E-3</v>
+    <v>66.760000000000005</v>
+    <v>2.0632999999999999</v>
+    <v>1.99</v>
+    <v>2.4589E-2</v>
+    <v>0.57999999999999996</v>
+    <v>6.9950000000000003E-3</v>
     <v>USD</v>
     <v>TransMedics Group, Inc. is a medical technology company that is transforming organ transplant therapy for patients with end-stage lung, heart and liver failure. The Company specializes in portable extracorporeal warm perfusion and assessment of donor organs for transplantation. Its Organ Care System (OCS) is a portable organ perfusion, optimization and monitoring system that utilizes its customized technology to replicate near-physiologic conditions for donor organs outside of the human body. It also developed its National OCS Program (NOP), which is a turnkey solution to provide outsourced organ retrieval, OCS organ management and logistics services, to provide transplant programs in the United States. Its logistics services include aviation transportation, ground transportation and other coordination activity. Its NOP provides trained organ procurement surgeons, clinical specialists and transplant coordinators that provide an end-to-end clinical solution using its OCS technology.</v>
     <v>584</v>
@@ -1948,25 +1948,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>200 Minuteman Road, ANDOVER, MA, 01810 US</v>
-    <v>88.843900000000005</v>
+    <v>83.234999999999999</v>
     <v>Healthcare Equipment &amp; Supplies</v>
     <v>Stock</v>
-    <v>45604.041543332809</v>
+    <v>45615.966014803125</v>
     <v>0</v>
-    <v>84.63</v>
-    <v>2869509960</v>
+    <v>80.02</v>
+    <v>2782921238</v>
     <v>TransMedics Group, Inc.</v>
     <v>TransMedics Group, Inc.</v>
-    <v>86.55</v>
-    <v>91.063999999999993</v>
-    <v>86.35</v>
-    <v>85.5</v>
-    <v>85.849900000000005</v>
+    <v>80.81</v>
+    <v>88.316100000000006</v>
+    <v>80.930000000000007</v>
+    <v>82.92</v>
+    <v>83.5</v>
     <v>33561520</v>
     <v>TMDX</v>
     <v>TransMedics Group, Inc. (XNAS:TMDX)</v>
-    <v>1143670</v>
-    <v>1839028</v>
+    <v>798521</v>
+    <v>2101032</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2860,7 +2860,7 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2893,14 +2893,14 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="38" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">_FV(A1,"Price")</f>
-        <v>85.5</v>
+        <v>82.92</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="42">
         <f ca="1">A5/F10</f>
-        <v>6.5364691571753983</v>
+        <v>6.3392283325740317</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>26</v>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="G3" s="46" cm="1">
         <f t="array" aca="1" ref="G3" ca="1">_FV(A1,"Shares outstanding",TRUE)*(1+(5*C6))</f>
-        <v>41951900</v>
+        <v>44451996.382290542</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>4</v>
@@ -2938,14 +2938,14 @@
     <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-9.8440000000000003E-3</v>
+        <v>2.4589E-2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="42">
         <f ca="1">A5/F15</f>
-        <v>81.98599885714286</v>
+        <v>79.512035371428567</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>25</v>
@@ -2986,14 +2986,14 @@
     <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">_FV(A1,"Market cap",TRUE)</f>
-        <v>2869509960</v>
+        <v>2782921238</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="43">
         <f ca="1">F18/A5</f>
-        <v>-1.6379103280756691E-2</v>
+        <v>-1.6888728059647657E-2</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>24</v>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="K5" s="48">
         <f ca="1">I5/G3</f>
-        <v>49.406852128501107</v>
+        <v>46.628081717279713</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>11</v>
@@ -3035,13 +3035,14 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">_FV(A1,"Beta")</f>
-        <v>2.0680999999999998</v>
+        <v>2.0632999999999999</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="44">
-        <v>0.05</v>
+        <f>K22</f>
+        <v>6.4898588516196787E-2</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>27</v>
@@ -3067,7 +3068,7 @@
       </c>
       <c r="K6" s="49">
         <f ca="1">K5/A3-1</f>
-        <v>-0.42214208036840806</v>
+        <v>-0.43767388184660261</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>13</v>
